--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2852,28 +2852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.931214746561</v>
+        <v>146.4647754370455</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1492260728631</v>
+        <v>200.3995673227339</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.5328788827998</v>
+        <v>181.2737138800683</v>
       </c>
       <c r="AD2" t="n">
-        <v>111931.214746561</v>
+        <v>146464.7754370455</v>
       </c>
       <c r="AE2" t="n">
-        <v>153149.2260728632</v>
+        <v>200399.5673227339</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.339679680487077e-06</v>
+        <v>4.814697350247532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>138532.8788827998</v>
+        <v>181273.7138800683</v>
       </c>
     </row>
     <row r="3">
@@ -2958,28 +2958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.14221848465021</v>
+        <v>121.5050974659915</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.2318277740022</v>
+        <v>166.2486347794777</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.8525094742038</v>
+        <v>150.3820984075948</v>
       </c>
       <c r="AD3" t="n">
-        <v>87142.21848465022</v>
+        <v>121505.0974659915</v>
       </c>
       <c r="AE3" t="n">
-        <v>119231.8277740022</v>
+        <v>166248.6347794777</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.050778733919368e-06</v>
+        <v>5.839863550565475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>107852.5094742038</v>
+        <v>150382.0984075948</v>
       </c>
     </row>
     <row r="4">
@@ -3064,28 +3064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.86965032223084</v>
+        <v>111.769843217232</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.4906438724358</v>
+        <v>152.928430427226</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.2775017204354</v>
+        <v>138.3331556636935</v>
       </c>
       <c r="AD4" t="n">
-        <v>85869.65032223084</v>
+        <v>111769.843217232</v>
       </c>
       <c r="AE4" t="n">
-        <v>117490.6438724358</v>
+        <v>152928.430427226</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.210107870263659e-06</v>
+        <v>6.069562696581241e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>106277.5017204354</v>
+        <v>138333.1556636935</v>
       </c>
     </row>
     <row r="5">
@@ -3170,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.74992125352884</v>
+        <v>110.1980515808907</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.6443841097071</v>
+        <v>150.7778357678319</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.75270955610947</v>
+        <v>136.3878107402127</v>
       </c>
       <c r="AD5" t="n">
-        <v>75749.92125352884</v>
+        <v>110198.0515808907</v>
       </c>
       <c r="AE5" t="n">
-        <v>103644.3841097071</v>
+        <v>150777.8357678319</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.380174100472347e-06</v>
+        <v>6.314741128733433e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>93752.70955610946</v>
+        <v>136387.8107402127</v>
       </c>
     </row>
     <row r="6">
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.26955023814044</v>
+        <v>109.7176805655023</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.9871192939795</v>
+        <v>150.1205709521043</v>
       </c>
       <c r="AC6" t="n">
-        <v>93.15817317191774</v>
+        <v>135.793274356021</v>
       </c>
       <c r="AD6" t="n">
-        <v>75269.55023814044</v>
+        <v>109717.6805655023</v>
       </c>
       <c r="AE6" t="n">
-        <v>102987.1192939795</v>
+        <v>150120.5709521043</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.423075792913134e-06</v>
+        <v>6.376590972035071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>93158.17317191773</v>
+        <v>135793.274356021</v>
       </c>
     </row>
     <row r="7">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.78423821842411</v>
+        <v>109.232368545786</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.3230939781487</v>
+        <v>149.4565456362735</v>
       </c>
       <c r="AC7" t="n">
-        <v>92.55752150026427</v>
+        <v>135.1926226843675</v>
       </c>
       <c r="AD7" t="n">
-        <v>74784.23821842411</v>
+        <v>109232.368545786</v>
       </c>
       <c r="AE7" t="n">
-        <v>102323.0939781488</v>
+        <v>149456.5456362735</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.467518024908377e-06</v>
+        <v>6.440661756391065e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>92557.52150026427</v>
+        <v>135192.6226843675</v>
       </c>
     </row>
     <row r="8">
@@ -3488,28 +3488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>74.17241913980362</v>
+        <v>108.6205494671655</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.4859761232278</v>
+        <v>148.6194277813526</v>
       </c>
       <c r="AC8" t="n">
-        <v>91.80029699851443</v>
+        <v>134.4353981826176</v>
       </c>
       <c r="AD8" t="n">
-        <v>74172.41913980362</v>
+        <v>108620.5494671655</v>
       </c>
       <c r="AE8" t="n">
-        <v>101485.9761232278</v>
+        <v>148619.4277813526</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.508505713660292e-06</v>
+        <v>6.499752248685774e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>91800.29699851443</v>
+        <v>134435.3981826176</v>
       </c>
     </row>
     <row r="9">
@@ -3594,28 +3594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>73.89364660720507</v>
+        <v>108.3417769345669</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.1045472455505</v>
+        <v>148.2379989036753</v>
       </c>
       <c r="AC9" t="n">
-        <v>91.45527115758375</v>
+        <v>134.090372341687</v>
       </c>
       <c r="AD9" t="n">
-        <v>73893.64660720507</v>
+        <v>108341.7769345669</v>
       </c>
       <c r="AE9" t="n">
-        <v>101104.5472455505</v>
+        <v>148237.9989036753</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.520153126352322e-06</v>
+        <v>6.516543909081594e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH9" t="n">
-        <v>91455.27115758375</v>
+        <v>134090.3723416869</v>
       </c>
     </row>
   </sheetData>
@@ -3891,28 +3891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.9647255731509</v>
+        <v>128.549168447142</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.9349270771399</v>
+        <v>175.8866434583621</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.5341200017477</v>
+        <v>159.1002690651996</v>
       </c>
       <c r="AD2" t="n">
-        <v>94964.72557315091</v>
+        <v>128549.168447142</v>
       </c>
       <c r="AE2" t="n">
-        <v>129934.9270771399</v>
+        <v>175886.6434583621</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.907887859787678e-06</v>
+        <v>5.721000816079965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>117534.1200017477</v>
+        <v>159100.2690651996</v>
       </c>
     </row>
     <row r="3">
@@ -3997,28 +3997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.86759545031133</v>
+        <v>108.1199556238711</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.3830999553639</v>
+        <v>147.9344932003159</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.5619760298334</v>
+        <v>133.8158327966831</v>
       </c>
       <c r="AD3" t="n">
-        <v>82867.59545031133</v>
+        <v>108119.9556238711</v>
       </c>
       <c r="AE3" t="n">
-        <v>113383.0999553639</v>
+        <v>147934.4932003159</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.410086015433429e-06</v>
+        <v>6.4562000237766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>102561.9760298334</v>
+        <v>133815.8327966831</v>
       </c>
     </row>
     <row r="4">
@@ -4103,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.54700462780333</v>
+        <v>106.1313579932434</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.26201227968279</v>
+        <v>145.2136061913566</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.78858514284376</v>
+        <v>131.3546234250691</v>
       </c>
       <c r="AD4" t="n">
-        <v>72547.00462780333</v>
+        <v>106131.3579932433</v>
       </c>
       <c r="AE4" t="n">
-        <v>99262.01227968279</v>
+        <v>145213.6061913566</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.673499789831906e-06</v>
+        <v>6.841827880145606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>89788.58514284376</v>
+        <v>131354.6234250691</v>
       </c>
     </row>
     <row r="5">
@@ -4209,28 +4209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.72226114609812</v>
+        <v>97.05987266567848</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.13356186289981</v>
+        <v>132.801599760501</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.76783245004808</v>
+        <v>120.12720146761</v>
       </c>
       <c r="AD5" t="n">
-        <v>71722.26114609811</v>
+        <v>97059.87266567849</v>
       </c>
       <c r="AE5" t="n">
-        <v>98133.56186289981</v>
+        <v>132801.599760501</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.774118104793722e-06</v>
+        <v>6.989129308094057e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>88767.83245004808</v>
+        <v>120127.20146761</v>
       </c>
     </row>
     <row r="6">
@@ -4315,28 +4315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.11765196166299</v>
+        <v>96.45526348124335</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.30630890328138</v>
+        <v>131.9743468008826</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.01953135183855</v>
+        <v>119.3789003694005</v>
       </c>
       <c r="AD6" t="n">
-        <v>71117.65196166298</v>
+        <v>96455.26348124335</v>
       </c>
       <c r="AE6" t="n">
-        <v>97306.30890328137</v>
+        <v>131974.3468008825</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.830644976722114e-06</v>
+        <v>7.071882522115493e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>88019.53135183855</v>
+        <v>119378.9003694005</v>
       </c>
     </row>
     <row r="7">
@@ -4421,28 +4421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.53254951719575</v>
+        <v>95.69956883618391</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.50574592586362</v>
+        <v>130.9403720486179</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.29537298138811</v>
+        <v>118.443606716299</v>
       </c>
       <c r="AD7" t="n">
-        <v>70532.54951719574</v>
+        <v>95699.56883618391</v>
       </c>
       <c r="AE7" t="n">
-        <v>96505.74592586362</v>
+        <v>130940.3720486179</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.888499904163562e-06</v>
+        <v>7.156579959447984e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>87295.37298138811</v>
+        <v>118443.606716299</v>
       </c>
     </row>
   </sheetData>
@@ -4718,28 +4718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.07713773919599</v>
+        <v>87.29375259589466</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.67316673854079</v>
+        <v>119.4391634302199</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.30576275509783</v>
+        <v>108.0400573063895</v>
       </c>
       <c r="AD2" t="n">
-        <v>64077.13773919599</v>
+        <v>87293.75259589466</v>
       </c>
       <c r="AE2" t="n">
-        <v>87673.16673854079</v>
+        <v>119439.1634302199</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.524746318047297e-06</v>
+        <v>8.547464489562259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79305.76275509784</v>
+        <v>108040.0573063895</v>
       </c>
     </row>
     <row r="3">
@@ -4824,28 +4824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.87937475523374</v>
+        <v>85.77784798304948</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.08838164722538</v>
+        <v>117.3650358619346</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.92205189003674</v>
+        <v>106.1638815621644</v>
       </c>
       <c r="AD3" t="n">
-        <v>54879.37475523374</v>
+        <v>85777.84798304948</v>
       </c>
       <c r="AE3" t="n">
-        <v>75088.38164722538</v>
+        <v>117365.0358619346</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.855968124313965e-06</v>
+        <v>9.059905507529878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>67922.05189003675</v>
+        <v>106163.8815621644</v>
       </c>
     </row>
   </sheetData>
@@ -5121,28 +5121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.38651610532013</v>
+        <v>100.3870372977264</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.5694483354247</v>
+        <v>137.3539731942107</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.63931151186019</v>
+        <v>124.2451027701042</v>
       </c>
       <c r="AD2" t="n">
-        <v>68386.51610532013</v>
+        <v>100387.0372977264</v>
       </c>
       <c r="AE2" t="n">
-        <v>93569.44833542469</v>
+        <v>137353.9731942107</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.947498100881197e-06</v>
+        <v>7.477124038727284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.783854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84639.31151186019</v>
+        <v>124245.1027701042</v>
       </c>
     </row>
     <row r="3">
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.5897995706034</v>
+        <v>90.56894475981625</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.11110150708726</v>
+        <v>123.9204258401758</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.41558585450706</v>
+        <v>112.093634321432</v>
       </c>
       <c r="AD3" t="n">
-        <v>66589.7995706034</v>
+        <v>90568.94475981625</v>
       </c>
       <c r="AE3" t="n">
-        <v>91111.10150708725</v>
+        <v>123920.4258401758</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.328138327493364e-06</v>
+        <v>8.052383317351669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>82415.58585450705</v>
+        <v>112093.634321432</v>
       </c>
     </row>
     <row r="4">
@@ -5333,28 +5333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.6286833202721</v>
+        <v>89.60782850948497</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.79605985192822</v>
+        <v>122.6053841850167</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.22604992924343</v>
+        <v>110.9040983961683</v>
       </c>
       <c r="AD4" t="n">
-        <v>65628.6833202721</v>
+        <v>89607.82850948497</v>
       </c>
       <c r="AE4" t="n">
-        <v>89796.05985192822</v>
+        <v>122605.3841850167</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.486946781218397e-06</v>
+        <v>8.292389575603503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.119791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>81226.04992924343</v>
+        <v>110904.0983961683</v>
       </c>
     </row>
   </sheetData>
@@ -5630,28 +5630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.67144152477942</v>
+        <v>83.26262509018201</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.01334292926543</v>
+        <v>113.9235969361124</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.09066599007444</v>
+        <v>103.0508887373318</v>
       </c>
       <c r="AD2" t="n">
-        <v>60671.44152477942</v>
+        <v>83262.62509018202</v>
       </c>
       <c r="AE2" t="n">
-        <v>83013.34292926543</v>
+        <v>113923.5969361124</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.039604513094486e-06</v>
+        <v>9.545522399364388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.028645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75090.66599007444</v>
+        <v>103050.8887373318</v>
       </c>
     </row>
     <row r="3">
@@ -5736,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.91560167876501</v>
+        <v>82.98016651818597</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.40146068844851</v>
+        <v>113.5371246567149</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.49156689644744</v>
+        <v>102.7013008298626</v>
       </c>
       <c r="AD3" t="n">
-        <v>52915.60167876502</v>
+        <v>82980.16651818597</v>
       </c>
       <c r="AE3" t="n">
-        <v>72401.46068844851</v>
+        <v>113537.1246567149</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088883535401979e-06</v>
+        <v>9.623407302297203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>65491.56689644744</v>
+        <v>102701.3008298626</v>
       </c>
     </row>
   </sheetData>
@@ -6033,28 +6033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.73138076139789</v>
+        <v>130.5428600251382</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.3521426450245</v>
+        <v>178.61450023084</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.7206399084174</v>
+        <v>161.5677830158841</v>
       </c>
       <c r="AD2" t="n">
-        <v>96731.38076139789</v>
+        <v>130542.8600251382</v>
       </c>
       <c r="AE2" t="n">
-        <v>132352.1426450245</v>
+        <v>178614.5002308399</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.775031339424223e-06</v>
+        <v>5.503566429946395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>119720.6399084174</v>
+        <v>161567.7830158841</v>
       </c>
     </row>
     <row r="3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.4522830809881</v>
+        <v>108.8749205468598</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.1830953662532</v>
+        <v>148.9674695146501</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.2856210015083</v>
+        <v>134.7502233013691</v>
       </c>
       <c r="AD3" t="n">
-        <v>83452.2830809881</v>
+        <v>108874.9205468598</v>
       </c>
       <c r="AE3" t="n">
-        <v>114183.0953662532</v>
+        <v>148967.4695146501</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.369585135535523e-06</v>
+        <v>6.370358257315549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>103285.6210015083</v>
+        <v>134750.2233013691</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.35940394650309</v>
+        <v>107.1707937016923</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.3735728680557</v>
+        <v>146.6358079843228</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.79405994874782</v>
+        <v>132.6410922749879</v>
       </c>
       <c r="AD4" t="n">
-        <v>73359.40394650309</v>
+        <v>107170.7937016923</v>
       </c>
       <c r="AE4" t="n">
-        <v>100373.5728680557</v>
+        <v>146635.8079843228</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.602324015877571e-06</v>
+        <v>6.709665079862132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>90794.05994874782</v>
+        <v>132641.0922749879</v>
       </c>
     </row>
     <row r="5">
@@ -6351,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.53794970197231</v>
+        <v>106.3493394571615</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.24962293068566</v>
+        <v>145.5118580469527</v>
       </c>
       <c r="AC5" t="n">
-        <v>89.77737821592638</v>
+        <v>131.6244105421664</v>
       </c>
       <c r="AD5" t="n">
-        <v>72537.94970197231</v>
+        <v>106349.3394571615</v>
       </c>
       <c r="AE5" t="n">
-        <v>99249.62293068565</v>
+        <v>145511.8580469528</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.69770723375166e-06</v>
+        <v>6.848722965392737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>89777.37821592638</v>
+        <v>131624.4105421664</v>
       </c>
     </row>
     <row r="6">
@@ -6457,28 +6457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.2200031668103</v>
+        <v>106.0313929219995</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.81459445446605</v>
+        <v>145.0768295707331</v>
       </c>
       <c r="AC6" t="n">
-        <v>89.38386824691074</v>
+        <v>131.2309005731508</v>
       </c>
       <c r="AD6" t="n">
-        <v>72220.0031668103</v>
+        <v>106031.3929219995</v>
       </c>
       <c r="AE6" t="n">
-        <v>98814.59445446605</v>
+        <v>145076.8295707331</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.716731232299051e-06</v>
+        <v>6.876457792035193e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>89383.86824691073</v>
+        <v>131230.9005731508</v>
       </c>
     </row>
     <row r="7">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.4817637847996</v>
+        <v>96.98965259669185</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.80450276317656</v>
+        <v>132.7055215642227</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.470178288965</v>
+        <v>120.040292839538</v>
       </c>
       <c r="AD7" t="n">
-        <v>71481.76378479959</v>
+        <v>96989.65259669186</v>
       </c>
       <c r="AE7" t="n">
-        <v>97804.50276317656</v>
+        <v>132705.5215642227</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.783518628457252e-06</v>
+        <v>6.973826221166132e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>88470.17828896501</v>
+        <v>120040.292839538</v>
       </c>
     </row>
   </sheetData>
@@ -6860,28 +6860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.60876209556387</v>
+        <v>81.1795283105954</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.61338511702019</v>
+        <v>111.0734120225395</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.87414274797583</v>
+        <v>100.4727214716497</v>
       </c>
       <c r="AD2" t="n">
-        <v>51608.76209556387</v>
+        <v>81179.5283105954</v>
       </c>
       <c r="AE2" t="n">
-        <v>70613.38511702018</v>
+        <v>111073.4120225395</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.247891228477234e-06</v>
+        <v>1.001058936316232e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63874.14274797583</v>
+        <v>100472.7214716497</v>
       </c>
     </row>
   </sheetData>
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.51657281963155</v>
+        <v>114.2788319069305</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.5345711891568</v>
+        <v>156.3613394412387</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.8898682546462</v>
+        <v>141.438432659528</v>
       </c>
       <c r="AD2" t="n">
-        <v>81516.57281963155</v>
+        <v>114278.8319069305</v>
       </c>
       <c r="AE2" t="n">
-        <v>111534.5711891568</v>
+        <v>156361.3394412387</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369955075199947e-06</v>
+        <v>6.488698065172052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>100889.8682546462</v>
+        <v>141438.432659528</v>
       </c>
     </row>
     <row r="3">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.39006731689437</v>
+        <v>103.2375777502139</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.31079549354034</v>
+        <v>141.2542083982715</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.11902834471107</v>
+        <v>127.7731050003051</v>
       </c>
       <c r="AD3" t="n">
-        <v>70390.06731689438</v>
+        <v>103237.5777502139</v>
       </c>
       <c r="AE3" t="n">
-        <v>96310.79549354034</v>
+        <v>141254.2083982715</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.855878814212689e-06</v>
+        <v>7.21021862336884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>87119.02834471107</v>
+        <v>127773.1050003051</v>
       </c>
     </row>
     <row r="4">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.23802102304967</v>
+        <v>93.8524081429475</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.73451492960737</v>
+        <v>128.4130052971547</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.69318578547568</v>
+        <v>116.1574483004131</v>
       </c>
       <c r="AD4" t="n">
-        <v>69238.02102304967</v>
+        <v>93852.40814294749</v>
       </c>
       <c r="AE4" t="n">
-        <v>94734.51492960737</v>
+        <v>128413.0052971547</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.034405782836253e-06</v>
+        <v>7.475303178233686e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>85693.18578547568</v>
+        <v>116157.4483004131</v>
       </c>
     </row>
     <row r="5">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.24034141793024</v>
+        <v>92.85472853782805</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.36944567936585</v>
+        <v>127.0479360469132</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.45839682859007</v>
+        <v>114.9226593435275</v>
       </c>
       <c r="AD5" t="n">
-        <v>68240.34141793023</v>
+        <v>92854.72853782805</v>
       </c>
       <c r="AE5" t="n">
-        <v>93369.44567936585</v>
+        <v>127047.9360469131</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.160588723870076e-06</v>
+        <v>7.662665059821547e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>84458.39682859006</v>
+        <v>114922.6593435275</v>
       </c>
     </row>
     <row r="6">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.31661167289444</v>
+        <v>92.93099879279225</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.47380200701396</v>
+        <v>127.1522923745613</v>
       </c>
       <c r="AC6" t="n">
-        <v>84.55279353479251</v>
+        <v>115.0170560497299</v>
       </c>
       <c r="AD6" t="n">
-        <v>68316.61167289443</v>
+        <v>92930.99879279225</v>
       </c>
       <c r="AE6" t="n">
-        <v>93473.80200701396</v>
+        <v>127152.2923745613</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.156732581153151e-06</v>
+        <v>7.656939292541161e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>84552.79353479251</v>
+        <v>115017.0560497299</v>
       </c>
     </row>
   </sheetData>
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.8987374482661</v>
+        <v>118.3327619348525</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.162198044625</v>
+        <v>161.9081053522092</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.075840897945</v>
+        <v>146.4558230168921</v>
       </c>
       <c r="AD2" t="n">
-        <v>84898.73744826611</v>
+        <v>118332.7619348525</v>
       </c>
       <c r="AE2" t="n">
-        <v>116162.198044625</v>
+        <v>161908.1053522092</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039828496285002e-06</v>
+        <v>5.940335429386032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>105075.840897945</v>
+        <v>146455.8230168921</v>
       </c>
     </row>
     <row r="3">
@@ -7984,28 +7984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.79818396926851</v>
+        <v>106.1468676012832</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.60568693592576</v>
+        <v>145.2348271213123</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.09945997224541</v>
+        <v>131.3738190592537</v>
       </c>
       <c r="AD3" t="n">
-        <v>72798.1839692685</v>
+        <v>106146.8676012832</v>
       </c>
       <c r="AE3" t="n">
-        <v>99605.68693592575</v>
+        <v>145234.8271213123</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.587431220995784e-06</v>
+        <v>6.745553737494698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.9140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>90099.45997224541</v>
+        <v>131373.8190592537</v>
       </c>
     </row>
     <row r="4">
@@ -8090,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.65497745968794</v>
+        <v>105.0036610917027</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.04150135480671</v>
+        <v>143.6706415401933</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.68455806763963</v>
+        <v>129.9589171546479</v>
       </c>
       <c r="AD4" t="n">
-        <v>71654.97745968794</v>
+        <v>105003.6610917027</v>
       </c>
       <c r="AE4" t="n">
-        <v>98041.50135480671</v>
+        <v>143670.6415401933</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.759865749133067e-06</v>
+        <v>6.999108792538575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>88684.55806763963</v>
+        <v>129958.9171546479</v>
       </c>
     </row>
     <row r="5">
@@ -8196,28 +8196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.60665495774029</v>
+        <v>95.59692197665947</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.60714025891794</v>
+        <v>130.7999260869568</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.38709038160358</v>
+        <v>118.3165647201017</v>
       </c>
       <c r="AD5" t="n">
-        <v>70606.65495774029</v>
+        <v>95596.92197665948</v>
       </c>
       <c r="AE5" t="n">
-        <v>96607.14025891793</v>
+        <v>130799.9260869568</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.889276960594876e-06</v>
+        <v>7.189400535149253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>87387.09038160359</v>
+        <v>118316.5647201017</v>
       </c>
     </row>
     <row r="6">
@@ -8302,28 +8302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.21832421040143</v>
+        <v>95.20859122932063</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.07580899846573</v>
+        <v>130.2685948265047</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.90646863092066</v>
+        <v>117.8359429694187</v>
       </c>
       <c r="AD6" t="n">
-        <v>70218.32421040144</v>
+        <v>95208.59122932063</v>
       </c>
       <c r="AE6" t="n">
-        <v>96075.80899846573</v>
+        <v>130268.5948265046</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.912823999636523e-06</v>
+        <v>7.224025101614108e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>86906.46863092066</v>
+        <v>117835.9429694187</v>
       </c>
     </row>
     <row r="7">
@@ -8408,28 +8408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.20935717442818</v>
+        <v>95.19962419334738</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.06353990424942</v>
+        <v>130.2563257322883</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.89537048183658</v>
+        <v>117.8248448203347</v>
       </c>
       <c r="AD7" t="n">
-        <v>70209.35717442818</v>
+        <v>95199.62419334738</v>
       </c>
       <c r="AE7" t="n">
-        <v>96063.53990424942</v>
+        <v>130256.3257322883</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.91036204213838e-06</v>
+        <v>7.220404934726996e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>86895.37048183658</v>
+        <v>117824.8448203347</v>
       </c>
     </row>
   </sheetData>
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.5745299754487</v>
+        <v>144.3991651625223</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.9787530643491</v>
+        <v>197.573308216839</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.7148159298299</v>
+        <v>178.7171889765595</v>
       </c>
       <c r="AD2" t="n">
-        <v>101574.5299754487</v>
+        <v>144399.1651625223</v>
       </c>
       <c r="AE2" t="n">
-        <v>138978.7530643491</v>
+        <v>197573.308216839</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.437549705950181e-06</v>
+        <v>4.973352404864599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>125714.8159298299</v>
+        <v>178717.1889765595</v>
       </c>
     </row>
     <row r="3">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.86636853636216</v>
+        <v>120.0237571690862</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.4861535882281</v>
+        <v>164.2217996331313</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.2734399826503</v>
+        <v>148.548701562934</v>
       </c>
       <c r="AD3" t="n">
-        <v>85866.36853636216</v>
+        <v>120023.7571690862</v>
       </c>
       <c r="AE3" t="n">
-        <v>117486.1535882281</v>
+        <v>164221.7996331313</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.149180656548174e-06</v>
+        <v>6.00292049908197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.3828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>106273.4399826503</v>
+        <v>148548.701562934</v>
       </c>
     </row>
     <row r="4">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.51721818825064</v>
+        <v>110.2632933217889</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.6401865616303</v>
+        <v>150.8671023959911</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.6036494582394</v>
+        <v>136.468557886667</v>
       </c>
       <c r="AD4" t="n">
-        <v>84517.21818825064</v>
+        <v>110263.2933217889</v>
       </c>
       <c r="AE4" t="n">
-        <v>115640.1865616303</v>
+        <v>150867.1023959911</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.34476976229178e-06</v>
+        <v>6.285893439875098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.057291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>104603.6494582394</v>
+        <v>136468.557886667</v>
       </c>
     </row>
     <row r="5">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.10791264339096</v>
+        <v>109.3505526221356</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.765959605896</v>
+        <v>149.6182503034484</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.95812065406528</v>
+        <v>135.3388944850612</v>
       </c>
       <c r="AD5" t="n">
-        <v>75107.91264339096</v>
+        <v>109350.5526221356</v>
       </c>
       <c r="AE5" t="n">
-        <v>102765.959605896</v>
+        <v>149618.2503034484</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.432294298965209e-06</v>
+        <v>6.412521533192847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.9140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>92958.12065406528</v>
+        <v>135338.8944850612</v>
       </c>
     </row>
     <row r="6">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.48456051576093</v>
+        <v>108.7272004945056</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.913061724518</v>
+        <v>148.7653524220705</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.18662214943609</v>
+        <v>134.567395980432</v>
       </c>
       <c r="AD6" t="n">
-        <v>74484.56051576094</v>
+        <v>108727.2004945056</v>
       </c>
       <c r="AE6" t="n">
-        <v>101913.061724518</v>
+        <v>148765.3524220705</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.484150234134091e-06</v>
+        <v>6.487545274502611e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>92186.62214943609</v>
+        <v>134567.395980432</v>
       </c>
     </row>
     <row r="7">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>73.81711973103462</v>
+        <v>108.0597597097792</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.9998397974467</v>
+        <v>147.852130494999</v>
       </c>
       <c r="AC7" t="n">
-        <v>91.36055684136907</v>
+        <v>133.741330672365</v>
       </c>
       <c r="AD7" t="n">
-        <v>73817.11973103462</v>
+        <v>108059.7597097792</v>
       </c>
       <c r="AE7" t="n">
-        <v>100999.8397974467</v>
+        <v>147852.1304949991</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.545770331324335e-06</v>
+        <v>6.576695536975508e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>91360.55684136908</v>
+        <v>133741.330672365</v>
       </c>
     </row>
     <row r="8">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>73.145025261256</v>
+        <v>107.3876652400006</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.0802504931807</v>
+        <v>146.9325411907331</v>
       </c>
       <c r="AC8" t="n">
-        <v>90.52873184965024</v>
+        <v>132.9095056806461</v>
       </c>
       <c r="AD8" t="n">
-        <v>73145.025261256</v>
+        <v>107387.6652400006</v>
       </c>
       <c r="AE8" t="n">
-        <v>100080.2504931807</v>
+        <v>146932.5411907331</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.599085008771106e-06</v>
+        <v>6.653829746507234e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>90528.73184965024</v>
+        <v>132909.5056806461</v>
       </c>
     </row>
     <row r="9">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>73.22728294296444</v>
+        <v>107.4699229217091</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.1927990822469</v>
+        <v>147.0450897797993</v>
       </c>
       <c r="AC9" t="n">
-        <v>90.63053895933894</v>
+        <v>133.0113127903349</v>
       </c>
       <c r="AD9" t="n">
-        <v>73227.28294296443</v>
+        <v>107469.9229217091</v>
       </c>
       <c r="AE9" t="n">
-        <v>100192.7990822469</v>
+        <v>147045.0897797993</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.593838242190952e-06</v>
+        <v>6.646238868870176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>90630.53895933894</v>
+        <v>133011.3127903349</v>
       </c>
     </row>
   </sheetData>
@@ -9744,28 +9744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.84927513994373</v>
+        <v>102.1471712181674</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.57085977896983</v>
+        <v>139.7622660757851</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.44971105623263</v>
+        <v>126.4235515591222</v>
       </c>
       <c r="AD2" t="n">
-        <v>69849.27513994373</v>
+        <v>102147.1712181674</v>
       </c>
       <c r="AE2" t="n">
-        <v>95570.85977896984</v>
+        <v>139762.2660757851</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.763908977099524e-06</v>
+        <v>7.153888813572674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>86449.71105623263</v>
+        <v>126423.5515591222</v>
       </c>
     </row>
     <row r="3">
@@ -9850,28 +9850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.11205811575446</v>
+        <v>92.31423446933037</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.19392280586919</v>
+        <v>126.3084082174796</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.29962561179197</v>
+        <v>114.253711012201</v>
       </c>
       <c r="AD3" t="n">
-        <v>68112.05811575447</v>
+        <v>92314.23446933037</v>
       </c>
       <c r="AE3" t="n">
-        <v>93193.9228058692</v>
+        <v>126308.4082174796</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.114331531653295e-06</v>
+        <v>7.680112972156845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>84299.62561179197</v>
+        <v>114253.711012201</v>
       </c>
     </row>
     <row r="4">
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.82546130227806</v>
+        <v>91.02763765585397</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.4335442850262</v>
+        <v>124.5480296966366</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.70725514627091</v>
+        <v>112.6613405466799</v>
       </c>
       <c r="AD4" t="n">
-        <v>66825.46130227805</v>
+        <v>91027.63765585396</v>
       </c>
       <c r="AE4" t="n">
-        <v>91433.5442850262</v>
+        <v>124548.0296966366</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.318267429603814e-06</v>
+        <v>7.986360372358514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>82707.25514627091</v>
+        <v>112661.3405466799</v>
       </c>
     </row>
     <row r="5">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.79378006636817</v>
+        <v>90.99595641994406</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.39019662037683</v>
+        <v>124.5046820319872</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.6680445218968</v>
+        <v>112.6221299223058</v>
       </c>
       <c r="AD5" t="n">
-        <v>66793.78006636817</v>
+        <v>90995.95641994406</v>
       </c>
       <c r="AE5" t="n">
-        <v>91390.19662037682</v>
+        <v>124504.6820319872</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.321983685357781e-06</v>
+        <v>7.991941016446064e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>82668.04452189681</v>
+        <v>112622.1299223058</v>
       </c>
     </row>
   </sheetData>
@@ -10359,28 +10359,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.8058608728014</v>
+        <v>89.46577770361402</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.03848199582063</v>
+        <v>122.4110240055849</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.44533564396444</v>
+        <v>110.7282876794752</v>
       </c>
       <c r="AD2" t="n">
-        <v>65805.86087280141</v>
+        <v>89465.77770361402</v>
       </c>
       <c r="AE2" t="n">
-        <v>90038.48199582064</v>
+        <v>122411.0240055849</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.26282245704287e-06</v>
+        <v>8.071836833431244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>81445.33564396444</v>
+        <v>110728.2876794752</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10465,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.97297647877486</v>
+        <v>87.46230110899528</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.53064870676219</v>
+        <v>119.6697789416796</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.17684644424681</v>
+        <v>108.2486631971066</v>
       </c>
       <c r="AD3" t="n">
-        <v>63972.97647877486</v>
+        <v>87462.30110899528</v>
       </c>
       <c r="AE3" t="n">
-        <v>87530.64870676219</v>
+        <v>119669.7789416796</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.658099561515134e-06</v>
+        <v>8.678091807322961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79176.84644424681</v>
+        <v>108248.6631971066</v>
       </c>
     </row>
     <row r="4">
@@ -10571,28 +10571,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.79580717114465</v>
+        <v>87.28513180136507</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.28823784390445</v>
+        <v>119.4273680788219</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.95757093391437</v>
+        <v>108.0293876867741</v>
       </c>
       <c r="AD4" t="n">
-        <v>63795.80717114465</v>
+        <v>87285.13180136507</v>
       </c>
       <c r="AE4" t="n">
-        <v>87288.23784390446</v>
+        <v>119427.3680788219</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.718764574597543e-06</v>
+        <v>8.771136573908972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>78957.57093391437</v>
+        <v>108029.3876867741</v>
       </c>
     </row>
   </sheetData>
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.16854235955586</v>
+        <v>85.0880712838092</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.06174233883296</v>
+        <v>116.4212529512342</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.9435690349401</v>
+        <v>105.3101719678533</v>
       </c>
       <c r="AD2" t="n">
-        <v>62168.54235955586</v>
+        <v>85088.0712838092</v>
       </c>
       <c r="AE2" t="n">
-        <v>85061.74233883296</v>
+        <v>116421.2529512342</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.849916705232132e-06</v>
+        <v>9.140379460179753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76943.5690349401</v>
+        <v>105310.1719678534</v>
       </c>
     </row>
     <row r="3">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.94203397453695</v>
+        <v>84.44439262575892</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.80587063851996</v>
+        <v>115.5405434141921</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.76194193198624</v>
+        <v>104.5135161129426</v>
       </c>
       <c r="AD3" t="n">
-        <v>53942.03397453696</v>
+        <v>84444.39262575892</v>
       </c>
       <c r="AE3" t="n">
-        <v>73805.87063851996</v>
+        <v>115540.5434141921</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.977401843972297e-06</v>
+        <v>9.3395724747703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.9765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>66761.94193198625</v>
+        <v>104513.5161129426</v>
       </c>
     </row>
   </sheetData>
@@ -19084,28 +19084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.7054111285823</v>
+        <v>79.49542826005552</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.95508928916455</v>
+        <v>108.7691520361414</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.41972638158873</v>
+        <v>98.38837682430348</v>
       </c>
       <c r="AD2" t="n">
-        <v>57705.4111285823</v>
+        <v>79495.42826005552</v>
       </c>
       <c r="AE2" t="n">
-        <v>78955.08928916455</v>
+        <v>108769.1520361414</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.296261097083417e-06</v>
+        <v>1.026086643765532e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>71419.72638158873</v>
+        <v>98388.37682430347</v>
       </c>
     </row>
   </sheetData>
@@ -19381,28 +19381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.04206504088212</v>
+        <v>116.2308475977665</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.6218169462379</v>
+        <v>159.0321734262936</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.7779102061399</v>
+        <v>143.8543659975891</v>
       </c>
       <c r="AD2" t="n">
-        <v>83042.06504088212</v>
+        <v>116230.8475977665</v>
       </c>
       <c r="AE2" t="n">
-        <v>113621.8169462379</v>
+        <v>159032.1734262936</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.221840856908008e-06</v>
+        <v>6.237266642783274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102777.9102061398</v>
+        <v>143854.3659975891</v>
       </c>
     </row>
     <row r="3">
@@ -19487,28 +19487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.44427813137634</v>
+        <v>104.547719833689</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.75321323841257</v>
+        <v>143.0468025962707</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.42378376445917</v>
+        <v>129.3946165239696</v>
       </c>
       <c r="AD3" t="n">
-        <v>71444.27813137634</v>
+        <v>104547.719833689</v>
       </c>
       <c r="AE3" t="n">
-        <v>97753.21323841257</v>
+        <v>143046.8025962707</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.743077661209562e-06</v>
+        <v>7.007331892197264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>88423.78376445918</v>
+        <v>129394.6165239696</v>
       </c>
     </row>
     <row r="4">
@@ -19593,28 +19593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.18161872071374</v>
+        <v>94.98795429235642</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.02558692814311</v>
+        <v>129.9667096355357</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.86103968450253</v>
+        <v>117.5628692773772</v>
       </c>
       <c r="AD4" t="n">
-        <v>70181.61872071374</v>
+        <v>94987.95429235641</v>
       </c>
       <c r="AE4" t="n">
-        <v>96025.58692814311</v>
+        <v>129966.7096355357</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.939464681231927e-06</v>
+        <v>7.297470305883992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>86861.03968450252</v>
+        <v>117562.8692773772</v>
       </c>
     </row>
     <row r="5">
@@ -19699,28 +19699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.62992359643221</v>
+        <v>94.43625916807487</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.27073332003036</v>
+        <v>129.2118560274229</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.17822824530411</v>
+        <v>116.8800578381788</v>
       </c>
       <c r="AD5" t="n">
-        <v>69629.9235964322</v>
+        <v>94436.25916807487</v>
       </c>
       <c r="AE5" t="n">
-        <v>95270.73332003035</v>
+        <v>129211.8560274229</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.969672387583617e-06</v>
+        <v>7.342098591404064e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>86178.22824530411</v>
+        <v>116880.0578381788</v>
       </c>
     </row>
     <row r="6">
@@ -19805,28 +19805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.2540963453023</v>
+        <v>94.06043191694499</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.75650989470657</v>
+        <v>128.6976326020991</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.71308158197596</v>
+        <v>116.4149111748507</v>
       </c>
       <c r="AD6" t="n">
-        <v>69254.0963453023</v>
+        <v>94060.43191694499</v>
       </c>
       <c r="AE6" t="n">
-        <v>94756.50989470657</v>
+        <v>128697.6326020991</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.036021017263983e-06</v>
+        <v>7.440120783316529e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.3671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>85713.08158197596</v>
+        <v>116414.9111748507</v>
       </c>
     </row>
   </sheetData>
@@ -20102,28 +20102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.89726955552422</v>
+        <v>133.0985417729219</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.3156072454165</v>
+        <v>182.1112967468773</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.4012756065977</v>
+        <v>164.7308501802167</v>
       </c>
       <c r="AD2" t="n">
-        <v>98897.26955552422</v>
+        <v>133098.5417729219</v>
       </c>
       <c r="AE2" t="n">
-        <v>135315.6072454165</v>
+        <v>182111.2967468773</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.612162622665822e-06</v>
+        <v>5.245470640047824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.5546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>122401.2756065977</v>
+        <v>164730.8501802167</v>
       </c>
     </row>
     <row r="3">
@@ -20208,28 +20208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.35566126054104</v>
+        <v>109.9426992912117</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.4191372457495</v>
+        <v>150.4284514997452</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.4036967788215</v>
+        <v>136.0717712163082</v>
       </c>
       <c r="AD3" t="n">
-        <v>84355.66126054103</v>
+        <v>109942.6992912117</v>
       </c>
       <c r="AE3" t="n">
-        <v>115419.1372457495</v>
+        <v>150428.4514997452</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.295408168300402e-06</v>
+        <v>6.237658651484765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>104403.6967788215</v>
+        <v>136071.7712163082</v>
       </c>
     </row>
     <row r="4">
@@ -20314,28 +20314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.75150667386445</v>
+        <v>108.782097182119</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.2783092348684</v>
+        <v>148.840464491934</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.51701095002682</v>
+        <v>134.6353394597682</v>
       </c>
       <c r="AD4" t="n">
-        <v>74751.50667386445</v>
+        <v>108782.097182119</v>
       </c>
       <c r="AE4" t="n">
-        <v>102278.3092348684</v>
+        <v>148840.464491934</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.443824284046581e-06</v>
+        <v>6.453183936191345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>92517.01095002682</v>
+        <v>134635.3394597682</v>
       </c>
     </row>
     <row r="5">
@@ -20420,28 +20420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.95746604414325</v>
+        <v>107.9880565523978</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.1918678146841</v>
+        <v>147.7540230717497</v>
       </c>
       <c r="AC5" t="n">
-        <v>91.53425797415449</v>
+        <v>133.6525864838959</v>
       </c>
       <c r="AD5" t="n">
-        <v>73957.46604414325</v>
+        <v>107988.0565523978</v>
       </c>
       <c r="AE5" t="n">
-        <v>101191.8678146841</v>
+        <v>147754.0230717497</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.535137204364203e-06</v>
+        <v>6.585785729803179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.809895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>91534.25797415449</v>
+        <v>133652.5864838959</v>
       </c>
     </row>
     <row r="6">
@@ -20526,28 +20526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.04359355406916</v>
+        <v>107.0741840623237</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.94146715655658</v>
+        <v>146.5036224136222</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.40319379988988</v>
+        <v>132.5215223096313</v>
       </c>
       <c r="AD6" t="n">
-        <v>73043.59355406916</v>
+        <v>107074.1840623236</v>
       </c>
       <c r="AE6" t="n">
-        <v>99941.46715655658</v>
+        <v>146503.6224136222</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642368796942963e-06</v>
+        <v>6.741504126042587e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.653645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>90403.19379988988</v>
+        <v>132521.5223096313</v>
       </c>
     </row>
     <row r="7">
@@ -20632,28 +20632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.75563665439995</v>
+        <v>106.7862271626545</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.54747182266755</v>
+        <v>146.1096270797331</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.04680082769116</v>
+        <v>132.1651293374325</v>
       </c>
       <c r="AD7" t="n">
-        <v>72755.63665439995</v>
+        <v>106786.2271626545</v>
       </c>
       <c r="AE7" t="n">
-        <v>99547.47182266755</v>
+        <v>146109.6270797331</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.629534219158647e-06</v>
+        <v>6.722866149855525e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>90046.80082769116</v>
+        <v>132165.1293374325</v>
       </c>
     </row>
     <row r="8">
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>72.38219820763025</v>
+        <v>98.05448758432146</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.03651686485598</v>
+        <v>134.162475771501</v>
       </c>
       <c r="AC8" t="n">
-        <v>89.58461069392317</v>
+        <v>121.3581973821221</v>
       </c>
       <c r="AD8" t="n">
-        <v>72382.19820763025</v>
+        <v>98054.48758432147</v>
       </c>
       <c r="AE8" t="n">
-        <v>99036.51686485598</v>
+        <v>134162.475771501</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.684383653238756e-06</v>
+        <v>6.802516798551435e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>89584.61069392317</v>
+        <v>121358.1973821221</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.81977748546225</v>
+        <v>77.08151805022473</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.37508215036378</v>
+        <v>105.4663335928501</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.08595150305155</v>
+        <v>95.40077473770403</v>
       </c>
       <c r="AD2" t="n">
-        <v>55819.77748546225</v>
+        <v>77081.51805022472</v>
       </c>
       <c r="AE2" t="n">
-        <v>76375.08215036379</v>
+        <v>105466.3335928501</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.270588115749544e-06</v>
+        <v>1.045269679332304e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>69085.95150305155</v>
+        <v>95400.77473770402</v>
       </c>
     </row>
   </sheetData>
@@ -21332,28 +21332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.37033700067434</v>
+        <v>99.05516004936581</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.17906725379088</v>
+        <v>135.5316399847274</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.38162644924499</v>
+        <v>122.5966904844727</v>
       </c>
       <c r="AD2" t="n">
-        <v>67370.33700067434</v>
+        <v>99055.1600493658</v>
       </c>
       <c r="AE2" t="n">
-        <v>92179.06725379088</v>
+        <v>135531.6399847274</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.057301644286526e-06</v>
+        <v>7.696740860484427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83381.62644924498</v>
+        <v>122596.6904844727</v>
       </c>
     </row>
     <row r="3">
@@ -21438,28 +21438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.177325681215</v>
+        <v>88.91969726264175</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.17849241767689</v>
+        <v>121.6638526548782</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.66742226415552</v>
+        <v>110.0524253138181</v>
       </c>
       <c r="AD3" t="n">
-        <v>65177.325681215</v>
+        <v>88919.69726264174</v>
       </c>
       <c r="AE3" t="n">
-        <v>89178.4924176769</v>
+        <v>121663.8526548782</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.525175008708945e-06</v>
+        <v>8.408800431926183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>80667.42226415552</v>
+        <v>110052.4253138182</v>
       </c>
     </row>
     <row r="4">
@@ -21544,28 +21544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.96022538516766</v>
+        <v>88.7025969665944</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.88144621483599</v>
+        <v>121.3668064520373</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.3987257340067</v>
+        <v>109.7837287836693</v>
       </c>
       <c r="AD4" t="n">
-        <v>64960.22538516767</v>
+        <v>88702.5969665944</v>
       </c>
       <c r="AE4" t="n">
-        <v>88881.44621483599</v>
+        <v>121366.8064520373</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.541452727256729e-06</v>
+        <v>8.433573599570579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80398.7257340067</v>
+        <v>109783.7287836693</v>
       </c>
     </row>
   </sheetData>
@@ -21841,28 +21841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.89054252105169</v>
+        <v>104.389295488696</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.3097647992471</v>
+        <v>142.8300394182624</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.87739426405327</v>
+        <v>129.1985409194414</v>
       </c>
       <c r="AD2" t="n">
-        <v>79890.54252105168</v>
+        <v>104389.2954886959</v>
       </c>
       <c r="AE2" t="n">
-        <v>109309.7647992471</v>
+        <v>142830.0394182624</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.536187947623016e-06</v>
+        <v>6.77212349709717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>98877.39426405326</v>
+        <v>129198.5409194414</v>
       </c>
     </row>
     <row r="3">
@@ -21947,28 +21947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.91918398270542</v>
+        <v>93.33259609577807</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.2982680249111</v>
+        <v>127.7017755217288</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.29857367308711</v>
+        <v>115.5140972965364</v>
       </c>
       <c r="AD3" t="n">
-        <v>68919.18398270542</v>
+        <v>93332.59609577808</v>
       </c>
       <c r="AE3" t="n">
-        <v>94298.2680249111</v>
+        <v>127701.7755217288</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.050192818460566e-06</v>
+        <v>7.539486865549613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>85298.5736730871</v>
+        <v>115514.0972965364</v>
       </c>
     </row>
     <row r="4">
@@ -22053,28 +22053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.11206306684069</v>
+        <v>92.52547517991336</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.1939295801638</v>
+        <v>126.5974370769815</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.29963173955737</v>
+        <v>114.5151553630067</v>
       </c>
       <c r="AD4" t="n">
-        <v>68112.0630668407</v>
+        <v>92525.47517991335</v>
       </c>
       <c r="AE4" t="n">
-        <v>93193.92958016379</v>
+        <v>126597.4370769815</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.153079321750615e-06</v>
+        <v>7.69308722658179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>84299.63173955737</v>
+        <v>114515.1553630067</v>
       </c>
     </row>
     <row r="5">
@@ -22159,28 +22159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.37406535761924</v>
+        <v>91.7874774706919</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.18416855624641</v>
+        <v>125.5876760530641</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.38624089055386</v>
+        <v>113.6017645140032</v>
       </c>
       <c r="AD5" t="n">
-        <v>67374.06535761924</v>
+        <v>91787.4774706919</v>
       </c>
       <c r="AE5" t="n">
-        <v>92184.16855624641</v>
+        <v>125587.6760530641</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.266355097866773e-06</v>
+        <v>7.862197844119172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>83386.24089055386</v>
+        <v>113601.7645140032</v>
       </c>
     </row>
   </sheetData>
